--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_16-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_16-20.xlsx
@@ -92,6 +92,12 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -185,9 +191,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -233,19 +236,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t xml:space="preserve">قطن 250 جم </t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -1133,17 +1133,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1151,7 +1151,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1159,7 +1159,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1185,7 +1185,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1203,7 +1203,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1211,7 +1211,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1229,7 +1229,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1263,7 +1263,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1281,7 +1281,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1333,7 +1333,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1367,7 +1367,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1385,7 +1385,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1463,7 +1463,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1489,7 +1489,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1515,7 +1515,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1567,7 +1567,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1619,7 +1619,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1627,7 +1627,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1645,7 +1645,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1671,7 +1671,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1679,7 +1679,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1697,7 +1697,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1705,7 +1705,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1723,7 +1723,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1731,7 +1731,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1749,7 +1749,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1775,7 +1775,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1783,7 +1783,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1801,7 +1801,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1827,7 +1827,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1835,7 +1835,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1853,7 +1853,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1861,7 +1861,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -1879,7 +1879,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1887,7 +1887,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1905,7 +1905,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1931,7 +1931,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1939,7 +1939,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -1957,7 +1957,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1965,7 +1965,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -1983,7 +1983,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1991,17 +1991,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2009,7 +2009,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2035,7 +2035,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2043,7 +2043,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="53" ht="25.5" customHeight="1">
       <c r="K53" s="10">
-        <v>3112.4499999999998</v>
+        <v>3161.9499999999998</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
